--- a/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
+++ b/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4530633-AB71-4A40-BE85-98C2CD7FCECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16DDAC-0F5A-C445-BE19-BC6BA3E4B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="240" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46:G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>1990</v>
       </c>
       <c r="G9">
-        <v>74365.343712221438</v>
+        <v>37182.671856110719</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -758,7 +758,7 @@
         <v>1991</v>
       </c>
       <c r="G10">
-        <v>76268.594328670457</v>
+        <v>38134.297164335228</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -788,7 +788,7 @@
         <v>1992</v>
       </c>
       <c r="G11">
-        <v>75276.349557065099</v>
+        <v>37638.17477853255</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -818,7 +818,7 @@
         <v>1993</v>
       </c>
       <c r="G12">
-        <v>73671.036676964519</v>
+        <v>36835.518338482259</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -848,7 +848,7 @@
         <v>1994</v>
       </c>
       <c r="G13">
-        <v>71367.348205307193</v>
+        <v>35683.674102653596</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -878,7 +878,7 @@
         <v>1995</v>
       </c>
       <c r="G14">
-        <v>72037.018492927207</v>
+        <v>36018.509246463604</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -908,7 +908,7 @@
         <v>1996</v>
       </c>
       <c r="G15">
-        <v>72662.567585527431</v>
+        <v>36331.283792763716</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -938,7 +938,7 @@
         <v>1997</v>
       </c>
       <c r="G16">
-        <v>73999.459328265832</v>
+        <v>36999.729664132916</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -968,7 +968,7 @@
         <v>1998</v>
       </c>
       <c r="G17">
-        <v>75736.60090159862</v>
+        <v>37868.30045079931</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -998,7 +998,7 @@
         <v>1999</v>
       </c>
       <c r="G18">
-        <v>77417.34295125994</v>
+        <v>38708.67147562997</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -1028,7 +1028,7 @@
         <v>2000</v>
       </c>
       <c r="G19">
-        <v>79522.410146238355</v>
+        <v>39761.205073119178</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -1058,7 +1058,7 @@
         <v>2001</v>
       </c>
       <c r="G20">
-        <v>80549.619359192526</v>
+        <v>40274.809679596263</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -1088,7 +1088,7 @@
         <v>2002</v>
       </c>
       <c r="G21">
-        <v>81659.766518730888</v>
+        <v>40829.883259365444</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -1118,7 +1118,7 @@
         <v>2003</v>
       </c>
       <c r="G22">
-        <v>82502.759720000206</v>
+        <v>41251.379860000103</v>
       </c>
       <c r="H22" t="s">
         <v>30</v>
@@ -1148,7 +1148,7 @@
         <v>2004</v>
       </c>
       <c r="G23">
-        <v>83425.458458403009</v>
+        <v>41712.729229201504</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -1178,7 +1178,7 @@
         <v>2005</v>
       </c>
       <c r="G24">
-        <v>83740.932064816589</v>
+        <v>41870.466032408294</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -1208,7 +1208,7 @@
         <v>2006</v>
       </c>
       <c r="G25">
-        <v>84231.333038206882</v>
+        <v>42115.666519103441</v>
       </c>
       <c r="H25" t="s">
         <v>30</v>
@@ -1238,7 +1238,7 @@
         <v>2007</v>
       </c>
       <c r="G26">
-        <v>84891.903715919703</v>
+        <v>42445.951857959852</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>2008</v>
       </c>
       <c r="G27">
-        <v>86789.543039890588</v>
+        <v>43394.771519945294</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
@@ -1298,7 +1298,7 @@
         <v>2009</v>
       </c>
       <c r="G28">
-        <v>88993.105699057836</v>
+        <v>44496.552849528918</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -1328,7 +1328,7 @@
         <v>2010</v>
       </c>
       <c r="G29">
-        <v>90637.951599164269</v>
+        <v>45318.975799582135</v>
       </c>
       <c r="H29" t="s">
         <v>30</v>
@@ -1358,7 +1358,7 @@
         <v>2011</v>
       </c>
       <c r="G30">
-        <v>91716.259188278636</v>
+        <v>45858.129594139318</v>
       </c>
       <c r="H30" t="s">
         <v>30</v>
@@ -1388,7 +1388,7 @@
         <v>2012</v>
       </c>
       <c r="G31">
-        <v>93477.785363915944</v>
+        <v>46738.892681957972</v>
       </c>
       <c r="H31" t="s">
         <v>30</v>
@@ -1418,7 +1418,7 @@
         <v>2013</v>
       </c>
       <c r="G32">
-        <v>95133.860991912064</v>
+        <v>47566.930495956032</v>
       </c>
       <c r="H32" t="s">
         <v>30</v>
@@ -1448,7 +1448,7 @@
         <v>2014</v>
       </c>
       <c r="G33">
-        <v>96716.642692686306</v>
+        <v>48358.321346343153</v>
       </c>
       <c r="H33" t="s">
         <v>30</v>
@@ -1478,7 +1478,7 @@
         <v>2015</v>
       </c>
       <c r="G34">
-        <v>98306.038759041519</v>
+        <v>49153.01937952076</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
@@ -1508,7 +1508,7 @@
         <v>2016</v>
       </c>
       <c r="G35">
-        <v>100116.68612793513</v>
+        <v>50058.343063967564</v>
       </c>
       <c r="H35" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>2017</v>
       </c>
       <c r="G36">
-        <v>101697.63623426856</v>
+        <v>50848.81811713428</v>
       </c>
       <c r="H36" t="s">
         <v>30</v>
@@ -1568,7 +1568,7 @@
         <v>2018</v>
       </c>
       <c r="G37">
-        <v>102562.64413007538</v>
+        <v>51281.32206503769</v>
       </c>
       <c r="H37" t="s">
         <v>30</v>
@@ -1598,7 +1598,7 @@
         <v>2019</v>
       </c>
       <c r="G38">
-        <v>103117.07446419953</v>
+        <v>51558.537232099763</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>

--- a/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
+++ b/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F16DDAC-0F5A-C445-BE19-BC6BA3E4B8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97577FB-4D12-8346-A0A6-096AE765D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="240" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="920" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="35">
   <si>
     <t>Name:</t>
   </si>
@@ -128,20 +128,23 @@
     <t>Mpkm</t>
   </si>
   <si>
-    <t>Assumption</t>
-  </si>
-  <si>
-    <t>Reference value used for testing</t>
-  </si>
-  <si>
-    <t>Additional passenger weight is negligible</t>
+    <t>OFS (2022). Transport de personnes: prestations de transport</t>
+  </si>
+  <si>
+    <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.html</t>
+  </si>
+  <si>
+    <t>Sum of Rail (ex-rack railway), Public Road, and Private Road</t>
+  </si>
+  <si>
+    <t>Sum of Rail (ex-rack railway), Public Road (1998 used due to lack of data), and Private Road</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,14 +170,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -225,7 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -567,9 +561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46:G78"/>
+      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,9 +700,11 @@
       <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -728,7 +724,7 @@
         <v>1990</v>
       </c>
       <c r="G9">
-        <v>37182.671856110719</v>
+        <v>93777</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
@@ -736,9 +732,11 @@
       <c r="J9" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -758,7 +756,7 @@
         <v>1991</v>
       </c>
       <c r="G10">
-        <v>38134.297164335228</v>
+        <v>96321</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -766,9 +764,11 @@
       <c r="J10" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>1992</v>
       </c>
       <c r="G11">
-        <v>37638.17477853255</v>
+        <v>94283</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -796,9 +796,11 @@
       <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -818,7 +820,7 @@
         <v>1993</v>
       </c>
       <c r="G12">
-        <v>36835.518338482259</v>
+        <v>92427</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -826,9 +828,11 @@
       <c r="J12" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -848,7 +852,7 @@
         <v>1994</v>
       </c>
       <c r="G13">
-        <v>35683.674102653596</v>
+        <v>89717.9</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -856,9 +860,11 @@
       <c r="J13" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -878,7 +884,7 @@
         <v>1995</v>
       </c>
       <c r="G14">
-        <v>36018.509246463604</v>
+        <v>88832.5</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -886,9 +892,11 @@
       <c r="J14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -908,7 +916,7 @@
         <v>1996</v>
       </c>
       <c r="G15">
-        <v>36331.283792763716</v>
+        <v>90172.3</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -916,9 +924,11 @@
       <c r="J15" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -938,7 +948,7 @@
         <v>1997</v>
       </c>
       <c r="G16">
-        <v>36999.729664132916</v>
+        <v>91008.5</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -946,9 +956,11 @@
       <c r="J16" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -968,7 +980,7 @@
         <v>1998</v>
       </c>
       <c r="G17">
-        <v>37868.30045079931</v>
+        <v>92126.9</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -976,9 +988,11 @@
       <c r="J17" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -998,7 +1012,7 @@
         <v>1999</v>
       </c>
       <c r="G18">
-        <v>38708.67147562997</v>
+        <v>93500.200000000012</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -1006,9 +1020,11 @@
       <c r="J18" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1028,7 +1044,7 @@
         <v>2000</v>
       </c>
       <c r="G19">
-        <v>39761.205073119178</v>
+        <v>95189.900000000009</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -1036,9 +1052,11 @@
       <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1058,7 +1076,7 @@
         <v>2001</v>
       </c>
       <c r="G20">
-        <v>40274.809679596263</v>
+        <v>96480.1</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -1066,9 +1084,11 @@
       <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1088,7 +1108,7 @@
         <v>2002</v>
       </c>
       <c r="G21">
-        <v>40829.883259365444</v>
+        <v>98209.5</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -1096,9 +1116,11 @@
       <c r="J21" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1118,7 +1140,7 @@
         <v>2003</v>
       </c>
       <c r="G22">
-        <v>41251.379860000103</v>
+        <v>99321.900000000009</v>
       </c>
       <c r="H22" t="s">
         <v>30</v>
@@ -1126,9 +1148,11 @@
       <c r="J22" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1148,7 +1172,7 @@
         <v>2004</v>
       </c>
       <c r="G23">
-        <v>41712.729229201504</v>
+        <v>100499.5</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -1156,9 +1180,11 @@
       <c r="J23" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1178,7 +1204,7 @@
         <v>2005</v>
       </c>
       <c r="G24">
-        <v>41870.466032408294</v>
+        <v>102016.1</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -1186,9 +1212,11 @@
       <c r="J24" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1208,7 +1236,7 @@
         <v>2006</v>
       </c>
       <c r="G25">
-        <v>42115.666519103441</v>
+        <v>103407.2</v>
       </c>
       <c r="H25" t="s">
         <v>30</v>
@@ -1216,9 +1244,11 @@
       <c r="J25" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1238,7 +1268,7 @@
         <v>2007</v>
       </c>
       <c r="G26">
-        <v>42445.951857959852</v>
+        <v>105329.5</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -1246,9 +1276,11 @@
       <c r="J26" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1268,7 +1300,7 @@
         <v>2008</v>
       </c>
       <c r="G27">
-        <v>43394.771519945294</v>
+        <v>107658.66982946932</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
@@ -1276,9 +1308,11 @@
       <c r="J27" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1298,7 +1332,7 @@
         <v>2009</v>
       </c>
       <c r="G28">
-        <v>44496.552849528918</v>
+        <v>111147.49214351295</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -1306,9 +1340,11 @@
       <c r="J28" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1328,7 +1364,7 @@
         <v>2010</v>
       </c>
       <c r="G29">
-        <v>45318.975799582135</v>
+        <v>114024.03596386658</v>
       </c>
       <c r="H29" t="s">
         <v>30</v>
@@ -1336,9 +1372,11 @@
       <c r="J29" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1358,7 +1396,7 @@
         <v>2011</v>
       </c>
       <c r="G30">
-        <v>45858.129594139318</v>
+        <v>115244.40239641294</v>
       </c>
       <c r="H30" t="s">
         <v>30</v>
@@ -1366,9 +1404,11 @@
       <c r="J30" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1388,7 +1428,7 @@
         <v>2012</v>
       </c>
       <c r="G31">
-        <v>46738.892681957972</v>
+        <v>116561.93730978228</v>
       </c>
       <c r="H31" t="s">
         <v>30</v>
@@ -1396,9 +1436,11 @@
       <c r="J31" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="4"/>
+      <c r="K31" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1418,7 +1460,7 @@
         <v>2013</v>
       </c>
       <c r="G32">
-        <v>47566.930495956032</v>
+        <v>118038.55097666742</v>
       </c>
       <c r="H32" t="s">
         <v>30</v>
@@ -1426,9 +1468,11 @@
       <c r="J32" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1448,7 +1492,7 @@
         <v>2014</v>
       </c>
       <c r="G33">
-        <v>48358.321346343153</v>
+        <v>119887.98406010853</v>
       </c>
       <c r="H33" t="s">
         <v>30</v>
@@ -1456,9 +1500,11 @@
       <c r="J33" t="s">
         <v>31</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1478,7 +1524,7 @@
         <v>2015</v>
       </c>
       <c r="G34">
-        <v>49153.01937952076</v>
+        <v>121632.73848063065</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
@@ -1486,9 +1532,11 @@
       <c r="J34" t="s">
         <v>31</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1508,7 +1556,7 @@
         <v>2016</v>
       </c>
       <c r="G35">
-        <v>50058.343063967564</v>
+        <v>124199.19202156534</v>
       </c>
       <c r="H35" t="s">
         <v>30</v>
@@ -1516,9 +1564,11 @@
       <c r="J35" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1538,7 +1588,7 @@
         <v>2017</v>
       </c>
       <c r="G36">
-        <v>50848.81811713428</v>
+        <v>126129.93555762712</v>
       </c>
       <c r="H36" t="s">
         <v>30</v>
@@ -1546,9 +1596,11 @@
       <c r="J36" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1568,7 +1620,7 @@
         <v>2018</v>
       </c>
       <c r="G37">
-        <v>51281.32206503769</v>
+        <v>127145.2929455077</v>
       </c>
       <c r="H37" t="s">
         <v>30</v>
@@ -1576,9 +1628,11 @@
       <c r="J37" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="4"/>
+      <c r="K37" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1598,7 +1652,7 @@
         <v>2019</v>
       </c>
       <c r="G38">
-        <v>51558.537232099763</v>
+        <v>129527.69986623318</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>
@@ -1606,9 +1660,75 @@
       <c r="J38" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>2020</v>
+      </c>
+      <c r="G39">
+        <v>109105.34419852198</v>
+      </c>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>2021</v>
+      </c>
+      <c r="G40">
+        <v>115879.5158273094</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="11:11" x14ac:dyDescent="0.2">
@@ -1617,6 +1737,41 @@
   </sheetData>
   <autoFilter ref="A5:L601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{4B9A7040-3FB7-AC4F-B94C-32172FB05BC5}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{B682494D-4FA8-5644-B7C2-7E7C6339B920}"/>
+    <hyperlink ref="K10" r:id="rId3" xr:uid="{1EC56EE5-D28A-934D-AD1E-836C5D79F6B3}"/>
+    <hyperlink ref="K11" r:id="rId4" xr:uid="{FD7A46FA-0D32-1044-B9BA-3F865DE85AF7}"/>
+    <hyperlink ref="K12" r:id="rId5" xr:uid="{7145451D-7836-BB49-B794-E2A01B1E92C9}"/>
+    <hyperlink ref="K13" r:id="rId6" xr:uid="{F1E4BDD8-C0BE-D24C-BB9B-375396112AC3}"/>
+    <hyperlink ref="K14" r:id="rId7" xr:uid="{B477979C-E5F0-FA41-ABB6-153285A531CC}"/>
+    <hyperlink ref="K15" r:id="rId8" xr:uid="{BF53F123-80C9-5349-8370-1FC5A355B2D5}"/>
+    <hyperlink ref="K16" r:id="rId9" xr:uid="{D97EC72C-5274-BE46-8F42-5127D1F4C87B}"/>
+    <hyperlink ref="K17" r:id="rId10" xr:uid="{EAB1614D-2164-444A-8E9E-1C5FF946E3B4}"/>
+    <hyperlink ref="K18" r:id="rId11" xr:uid="{0738F39D-02BE-8E4D-8408-7740281A2213}"/>
+    <hyperlink ref="K19" r:id="rId12" xr:uid="{ECF44579-864D-2344-8127-0704CA521DC6}"/>
+    <hyperlink ref="K20" r:id="rId13" xr:uid="{ECBD42A9-08D9-DF43-ADA9-09FF35986159}"/>
+    <hyperlink ref="K21" r:id="rId14" xr:uid="{86189934-99F7-F44A-9048-F7F01B93926D}"/>
+    <hyperlink ref="K22" r:id="rId15" xr:uid="{50EB0F37-27E8-B148-974B-E6CBE6070EEA}"/>
+    <hyperlink ref="K23" r:id="rId16" xr:uid="{17220A4B-1BA8-3B4A-A227-0532C1AD88AB}"/>
+    <hyperlink ref="K24" r:id="rId17" xr:uid="{D30E1023-29D6-234D-A55D-1D0799EA19C8}"/>
+    <hyperlink ref="K25" r:id="rId18" xr:uid="{5268EB8A-57C3-7C4C-8A24-854589B31154}"/>
+    <hyperlink ref="K26" r:id="rId19" xr:uid="{8297CFEC-472F-9346-B419-DEB9A5844A1E}"/>
+    <hyperlink ref="K27" r:id="rId20" xr:uid="{FA3C8BC3-2DD8-3742-A7D3-9024D10048F1}"/>
+    <hyperlink ref="K28" r:id="rId21" xr:uid="{F8A1A374-D6BD-8240-A9EF-90051E9F0F09}"/>
+    <hyperlink ref="K29" r:id="rId22" xr:uid="{B418864F-D996-FB47-A8E8-86B32EBB8A62}"/>
+    <hyperlink ref="K30" r:id="rId23" xr:uid="{BB8E77BE-B33B-4B4D-8D25-30E15CEEE4A3}"/>
+    <hyperlink ref="K31" r:id="rId24" xr:uid="{4A5EEAE0-86E2-0942-B0E2-02388089DA74}"/>
+    <hyperlink ref="K32" r:id="rId25" xr:uid="{C56586F9-8BA2-CB46-8EA1-45C1012E7773}"/>
+    <hyperlink ref="K33" r:id="rId26" xr:uid="{F324C1A9-C2C0-1C44-AF78-401E436CD412}"/>
+    <hyperlink ref="K34" r:id="rId27" xr:uid="{8D8860DE-0216-5245-8B60-1DDF8DC348C7}"/>
+    <hyperlink ref="K35" r:id="rId28" xr:uid="{2920AEDD-7637-084E-ACBC-B32EC71EBEDF}"/>
+    <hyperlink ref="K36" r:id="rId29" xr:uid="{86A9DE94-479C-C74F-B604-A3C3D7B8B87E}"/>
+    <hyperlink ref="K37" r:id="rId30" xr:uid="{6FE7CC90-F343-4C41-A926-E042B785F622}"/>
+    <hyperlink ref="K38" r:id="rId31" xr:uid="{B2CC4D32-019C-9746-83F7-92472391E1FD}"/>
+    <hyperlink ref="K39" r:id="rId32" xr:uid="{28983732-0BED-CA47-B99F-D257A1761973}"/>
+    <hyperlink ref="K40" r:id="rId33" xr:uid="{D48A3345-1D05-EE4C-9226-51EE17E8D536}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
+++ b/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97577FB-4D12-8346-A0A6-096AE765D788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E9550-BCB4-B54A-A06E-03CA279DE58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="920" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$601</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$602</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="37">
   <si>
     <t>Name:</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Sum of Rail (ex-rack railway), Public Road (1998 used due to lack of data), and Private Road</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -559,11 +565,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,10 +671,10 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -685,27 +691,19 @@
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -714,20 +712,17 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1990</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>93777</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>31</v>
@@ -753,10 +748,10 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G10">
-        <v>96321</v>
+        <v>93777</v>
       </c>
       <c r="H10" t="s">
         <v>30</v>
@@ -785,10 +780,10 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G11">
-        <v>94283</v>
+        <v>96321</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
@@ -817,10 +812,10 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G12">
-        <v>92427</v>
+        <v>94283</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
@@ -849,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G13">
-        <v>89717.9</v>
+        <v>92427</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
@@ -881,10 +876,10 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G14">
-        <v>88832.5</v>
+        <v>89717.9</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -913,10 +908,10 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G15">
-        <v>90172.3</v>
+        <v>88832.5</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
@@ -945,10 +940,10 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G16">
-        <v>91008.5</v>
+        <v>90172.3</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
@@ -977,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G17">
-        <v>92126.9</v>
+        <v>91008.5</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>
@@ -992,7 +987,7 @@
         <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1009,10 +1004,10 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G18">
-        <v>93500.200000000012</v>
+        <v>92126.9</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
@@ -1041,10 +1036,10 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G19">
-        <v>95189.900000000009</v>
+        <v>93500.200000000012</v>
       </c>
       <c r="H19" t="s">
         <v>30</v>
@@ -1073,10 +1068,10 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G20">
-        <v>96480.1</v>
+        <v>95189.900000000009</v>
       </c>
       <c r="H20" t="s">
         <v>30</v>
@@ -1105,10 +1100,10 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G21">
-        <v>98209.5</v>
+        <v>96480.1</v>
       </c>
       <c r="H21" t="s">
         <v>30</v>
@@ -1137,10 +1132,10 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G22">
-        <v>99321.900000000009</v>
+        <v>98209.5</v>
       </c>
       <c r="H22" t="s">
         <v>30</v>
@@ -1169,10 +1164,10 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G23">
-        <v>100499.5</v>
+        <v>99321.900000000009</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -1201,10 +1196,10 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G24">
-        <v>102016.1</v>
+        <v>100499.5</v>
       </c>
       <c r="H24" t="s">
         <v>30</v>
@@ -1233,10 +1228,10 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G25">
-        <v>103407.2</v>
+        <v>102016.1</v>
       </c>
       <c r="H25" t="s">
         <v>30</v>
@@ -1265,10 +1260,10 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G26">
-        <v>105329.5</v>
+        <v>103407.2</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -1297,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G27">
-        <v>107658.66982946932</v>
+        <v>105329.5</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
@@ -1329,10 +1324,10 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G28">
-        <v>111147.49214351295</v>
+        <v>107658.66982946932</v>
       </c>
       <c r="H28" t="s">
         <v>30</v>
@@ -1361,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G29">
-        <v>114024.03596386658</v>
+        <v>111147.49214351295</v>
       </c>
       <c r="H29" t="s">
         <v>30</v>
@@ -1393,10 +1388,10 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G30">
-        <v>115244.40239641294</v>
+        <v>114024.03596386658</v>
       </c>
       <c r="H30" t="s">
         <v>30</v>
@@ -1425,10 +1420,10 @@
         <v>20</v>
       </c>
       <c r="E31">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G31">
-        <v>116561.93730978228</v>
+        <v>115244.40239641294</v>
       </c>
       <c r="H31" t="s">
         <v>30</v>
@@ -1457,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G32">
-        <v>118038.55097666742</v>
+        <v>116561.93730978228</v>
       </c>
       <c r="H32" t="s">
         <v>30</v>
@@ -1489,10 +1484,10 @@
         <v>20</v>
       </c>
       <c r="E33">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G33">
-        <v>119887.98406010853</v>
+        <v>118038.55097666742</v>
       </c>
       <c r="H33" t="s">
         <v>30</v>
@@ -1521,10 +1516,10 @@
         <v>20</v>
       </c>
       <c r="E34">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G34">
-        <v>121632.73848063065</v>
+        <v>119887.98406010853</v>
       </c>
       <c r="H34" t="s">
         <v>30</v>
@@ -1553,10 +1548,10 @@
         <v>20</v>
       </c>
       <c r="E35">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G35">
-        <v>124199.19202156534</v>
+        <v>121632.73848063065</v>
       </c>
       <c r="H35" t="s">
         <v>30</v>
@@ -1585,10 +1580,10 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G36">
-        <v>126129.93555762712</v>
+        <v>124199.19202156534</v>
       </c>
       <c r="H36" t="s">
         <v>30</v>
@@ -1617,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G37">
-        <v>127145.2929455077</v>
+        <v>126129.93555762712</v>
       </c>
       <c r="H37" t="s">
         <v>30</v>
@@ -1649,10 +1644,10 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G38">
-        <v>129527.69986623318</v>
+        <v>127145.2929455077</v>
       </c>
       <c r="H38" t="s">
         <v>30</v>
@@ -1681,10 +1676,10 @@
         <v>20</v>
       </c>
       <c r="E39">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G39">
-        <v>109105.34419852198</v>
+        <v>129527.69986623318</v>
       </c>
       <c r="H39" t="s">
         <v>30</v>
@@ -1713,64 +1708,96 @@
         <v>20</v>
       </c>
       <c r="E40">
+        <v>2020</v>
+      </c>
+      <c r="G40">
+        <v>109105.34419852198</v>
+      </c>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
         <v>2021</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>115879.5158273094</v>
       </c>
-      <c r="H40" t="s">
-        <v>30</v>
-      </c>
-      <c r="J40" t="s">
-        <v>31</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K181" s="2"/>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K182" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L601" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L602" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" xr:uid="{4B9A7040-3FB7-AC4F-B94C-32172FB05BC5}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{B682494D-4FA8-5644-B7C2-7E7C6339B920}"/>
-    <hyperlink ref="K10" r:id="rId3" xr:uid="{1EC56EE5-D28A-934D-AD1E-836C5D79F6B3}"/>
-    <hyperlink ref="K11" r:id="rId4" xr:uid="{FD7A46FA-0D32-1044-B9BA-3F865DE85AF7}"/>
-    <hyperlink ref="K12" r:id="rId5" xr:uid="{7145451D-7836-BB49-B794-E2A01B1E92C9}"/>
-    <hyperlink ref="K13" r:id="rId6" xr:uid="{F1E4BDD8-C0BE-D24C-BB9B-375396112AC3}"/>
-    <hyperlink ref="K14" r:id="rId7" xr:uid="{B477979C-E5F0-FA41-ABB6-153285A531CC}"/>
-    <hyperlink ref="K15" r:id="rId8" xr:uid="{BF53F123-80C9-5349-8370-1FC5A355B2D5}"/>
-    <hyperlink ref="K16" r:id="rId9" xr:uid="{D97EC72C-5274-BE46-8F42-5127D1F4C87B}"/>
-    <hyperlink ref="K17" r:id="rId10" xr:uid="{EAB1614D-2164-444A-8E9E-1C5FF946E3B4}"/>
-    <hyperlink ref="K18" r:id="rId11" xr:uid="{0738F39D-02BE-8E4D-8408-7740281A2213}"/>
-    <hyperlink ref="K19" r:id="rId12" xr:uid="{ECF44579-864D-2344-8127-0704CA521DC6}"/>
-    <hyperlink ref="K20" r:id="rId13" xr:uid="{ECBD42A9-08D9-DF43-ADA9-09FF35986159}"/>
-    <hyperlink ref="K21" r:id="rId14" xr:uid="{86189934-99F7-F44A-9048-F7F01B93926D}"/>
-    <hyperlink ref="K22" r:id="rId15" xr:uid="{50EB0F37-27E8-B148-974B-E6CBE6070EEA}"/>
-    <hyperlink ref="K23" r:id="rId16" xr:uid="{17220A4B-1BA8-3B4A-A227-0532C1AD88AB}"/>
-    <hyperlink ref="K24" r:id="rId17" xr:uid="{D30E1023-29D6-234D-A55D-1D0799EA19C8}"/>
-    <hyperlink ref="K25" r:id="rId18" xr:uid="{5268EB8A-57C3-7C4C-8A24-854589B31154}"/>
-    <hyperlink ref="K26" r:id="rId19" xr:uid="{8297CFEC-472F-9346-B419-DEB9A5844A1E}"/>
-    <hyperlink ref="K27" r:id="rId20" xr:uid="{FA3C8BC3-2DD8-3742-A7D3-9024D10048F1}"/>
-    <hyperlink ref="K28" r:id="rId21" xr:uid="{F8A1A374-D6BD-8240-A9EF-90051E9F0F09}"/>
-    <hyperlink ref="K29" r:id="rId22" xr:uid="{B418864F-D996-FB47-A8E8-86B32EBB8A62}"/>
-    <hyperlink ref="K30" r:id="rId23" xr:uid="{BB8E77BE-B33B-4B4D-8D25-30E15CEEE4A3}"/>
-    <hyperlink ref="K31" r:id="rId24" xr:uid="{4A5EEAE0-86E2-0942-B0E2-02388089DA74}"/>
-    <hyperlink ref="K32" r:id="rId25" xr:uid="{C56586F9-8BA2-CB46-8EA1-45C1012E7773}"/>
-    <hyperlink ref="K33" r:id="rId26" xr:uid="{F324C1A9-C2C0-1C44-AF78-401E436CD412}"/>
-    <hyperlink ref="K34" r:id="rId27" xr:uid="{8D8860DE-0216-5245-8B60-1DDF8DC348C7}"/>
-    <hyperlink ref="K35" r:id="rId28" xr:uid="{2920AEDD-7637-084E-ACBC-B32EC71EBEDF}"/>
-    <hyperlink ref="K36" r:id="rId29" xr:uid="{86A9DE94-479C-C74F-B604-A3C3D7B8B87E}"/>
-    <hyperlink ref="K37" r:id="rId30" xr:uid="{6FE7CC90-F343-4C41-A926-E042B785F622}"/>
-    <hyperlink ref="K38" r:id="rId31" xr:uid="{B2CC4D32-019C-9746-83F7-92472391E1FD}"/>
-    <hyperlink ref="K39" r:id="rId32" xr:uid="{28983732-0BED-CA47-B99F-D257A1761973}"/>
-    <hyperlink ref="K40" r:id="rId33" xr:uid="{D48A3345-1D05-EE4C-9226-51EE17E8D536}"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{4B9A7040-3FB7-AC4F-B94C-32172FB05BC5}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{B682494D-4FA8-5644-B7C2-7E7C6339B920}"/>
+    <hyperlink ref="K11" r:id="rId3" xr:uid="{1EC56EE5-D28A-934D-AD1E-836C5D79F6B3}"/>
+    <hyperlink ref="K12" r:id="rId4" xr:uid="{FD7A46FA-0D32-1044-B9BA-3F865DE85AF7}"/>
+    <hyperlink ref="K13" r:id="rId5" xr:uid="{7145451D-7836-BB49-B794-E2A01B1E92C9}"/>
+    <hyperlink ref="K14" r:id="rId6" xr:uid="{F1E4BDD8-C0BE-D24C-BB9B-375396112AC3}"/>
+    <hyperlink ref="K15" r:id="rId7" xr:uid="{B477979C-E5F0-FA41-ABB6-153285A531CC}"/>
+    <hyperlink ref="K16" r:id="rId8" xr:uid="{BF53F123-80C9-5349-8370-1FC5A355B2D5}"/>
+    <hyperlink ref="K17" r:id="rId9" xr:uid="{D97EC72C-5274-BE46-8F42-5127D1F4C87B}"/>
+    <hyperlink ref="K18" r:id="rId10" xr:uid="{EAB1614D-2164-444A-8E9E-1C5FF946E3B4}"/>
+    <hyperlink ref="K19" r:id="rId11" xr:uid="{0738F39D-02BE-8E4D-8408-7740281A2213}"/>
+    <hyperlink ref="K20" r:id="rId12" xr:uid="{ECF44579-864D-2344-8127-0704CA521DC6}"/>
+    <hyperlink ref="K21" r:id="rId13" xr:uid="{ECBD42A9-08D9-DF43-ADA9-09FF35986159}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{86189934-99F7-F44A-9048-F7F01B93926D}"/>
+    <hyperlink ref="K23" r:id="rId15" xr:uid="{50EB0F37-27E8-B148-974B-E6CBE6070EEA}"/>
+    <hyperlink ref="K24" r:id="rId16" xr:uid="{17220A4B-1BA8-3B4A-A227-0532C1AD88AB}"/>
+    <hyperlink ref="K25" r:id="rId17" xr:uid="{D30E1023-29D6-234D-A55D-1D0799EA19C8}"/>
+    <hyperlink ref="K26" r:id="rId18" xr:uid="{5268EB8A-57C3-7C4C-8A24-854589B31154}"/>
+    <hyperlink ref="K27" r:id="rId19" xr:uid="{8297CFEC-472F-9346-B419-DEB9A5844A1E}"/>
+    <hyperlink ref="K28" r:id="rId20" xr:uid="{FA3C8BC3-2DD8-3742-A7D3-9024D10048F1}"/>
+    <hyperlink ref="K29" r:id="rId21" xr:uid="{F8A1A374-D6BD-8240-A9EF-90051E9F0F09}"/>
+    <hyperlink ref="K30" r:id="rId22" xr:uid="{B418864F-D996-FB47-A8E8-86B32EBB8A62}"/>
+    <hyperlink ref="K31" r:id="rId23" xr:uid="{BB8E77BE-B33B-4B4D-8D25-30E15CEEE4A3}"/>
+    <hyperlink ref="K32" r:id="rId24" xr:uid="{4A5EEAE0-86E2-0942-B0E2-02388089DA74}"/>
+    <hyperlink ref="K33" r:id="rId25" xr:uid="{C56586F9-8BA2-CB46-8EA1-45C1012E7773}"/>
+    <hyperlink ref="K34" r:id="rId26" xr:uid="{F324C1A9-C2C0-1C44-AF78-401E436CD412}"/>
+    <hyperlink ref="K35" r:id="rId27" xr:uid="{8D8860DE-0216-5245-8B60-1DDF8DC348C7}"/>
+    <hyperlink ref="K36" r:id="rId28" xr:uid="{2920AEDD-7637-084E-ACBC-B32EC71EBEDF}"/>
+    <hyperlink ref="K37" r:id="rId29" xr:uid="{86A9DE94-479C-C74F-B604-A3C3D7B8B87E}"/>
+    <hyperlink ref="K38" r:id="rId30" xr:uid="{6FE7CC90-F343-4C41-A926-E042B785F622}"/>
+    <hyperlink ref="K39" r:id="rId31" xr:uid="{B2CC4D32-019C-9746-83F7-92472391E1FD}"/>
+    <hyperlink ref="K40" r:id="rId32" xr:uid="{28983732-0BED-CA47-B99F-D257A1761973}"/>
+    <hyperlink ref="K41" r:id="rId33" xr:uid="{D48A3345-1D05-EE4C-9226-51EE17E8D536}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
+++ b/data/zenodo_ivan/demands/CHE_dem_passenger.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6E9550-BCB4-B54A-A06E-03CA279DE58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD98686-6825-1445-8F24-60BE6C8873DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="500" windowWidth="21600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$602</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$604</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="47">
   <si>
     <t>Name:</t>
   </si>
@@ -122,28 +122,58 @@
     <t>CHE_dem_passenger.xlsx</t>
   </si>
   <si>
-    <t>passenger</t>
-  </si>
-  <si>
     <t>Mpkm</t>
   </si>
   <si>
-    <t>OFS (2022). Transport de personnes: prestations de transport</t>
-  </si>
-  <si>
-    <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.html</t>
-  </si>
-  <si>
-    <t>Sum of Rail (ex-rack railway), Public Road, and Private Road</t>
-  </si>
-  <si>
-    <t>Sum of Rail (ex-rack railway), Public Road (1998 used due to lack of data), and Private Road</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>passshort</t>
+  </si>
+  <si>
+    <t>passlong</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>FSO, Transport de personnes: prestations de transport</t>
+  </si>
+  <si>
+    <t>https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html</t>
+  </si>
+  <si>
+    <t>Sum of Rail (ex-rack railway), Public Road (1998 used due to lack of data), Private Road and Soft Mobility (1994 used due to lack of data)</t>
+  </si>
+  <si>
+    <t>Sum of Rail (ex-rack railway), Public Road (1998 used due to lack of data), Private Road and Soft Mobility</t>
+  </si>
+  <si>
+    <t>Sum of Rail (ex-rack railway), Public Road, Private Road and Soft Mobility</t>
+  </si>
+  <si>
+    <t>annual_fxe</t>
+  </si>
+  <si>
+    <t>input_share</t>
+  </si>
+  <si>
+    <t>FSO, Mobility and Transport Microcensus 2015</t>
+  </si>
+  <si>
+    <t>FSO, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Share of rail and private car (swiss) transport that traveled =&gt;10km (Fig. G 3.3.1.4)</t>
+  </si>
+  <si>
+    <t>Share of rail and private car (swiss) transport that traveled =&gt;10km (Fig. G3.3.1.7)</t>
   </si>
 </sst>
 </file>
@@ -565,11 +595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -671,18 +701,17 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -692,13 +721,13 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -712,27 +741,19 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -742,29 +763,18 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1990</v>
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
       <c r="G10">
-        <v>93777</v>
-      </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -773,30 +783,22 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1991</v>
+        <v>19</v>
       </c>
       <c r="G11">
-        <v>96321</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" t="s">
         <v>34</v>
       </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -812,22 +814,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G12">
-        <v>94283</v>
+        <v>88944.626784235763</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -844,22 +846,22 @@
         <v>20</v>
       </c>
       <c r="E13">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G13">
-        <v>92427</v>
+        <v>91274.57783244281</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -876,22 +878,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G14">
-        <v>89717.9</v>
+        <v>89435.949972198359</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -908,22 +910,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G15">
-        <v>88832.5</v>
+        <v>87864.040739852935</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -940,22 +942,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G16">
-        <v>90172.3</v>
+        <v>85218.537490088769</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -972,22 +974,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G17">
-        <v>91008.5</v>
+        <v>84447.911635763186</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1004,22 +1006,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G18">
-        <v>92126.9</v>
+        <v>85897.747851711771</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1036,22 +1038,22 @@
         <v>20</v>
       </c>
       <c r="E19">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G19">
-        <v>93500.200000000012</v>
+        <v>87192.740304778476</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1068,22 +1070,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G20">
-        <v>95189.900000000009</v>
+        <v>88331.92140097935</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1100,22 +1102,22 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G21">
-        <v>96480.1</v>
+        <v>90046.940410449432</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1132,22 +1134,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G22">
-        <v>98209.5</v>
+        <v>91775.679896854286</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1164,22 +1166,22 @@
         <v>20</v>
       </c>
       <c r="E23">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G23">
-        <v>99321.900000000009</v>
+        <v>93357.856460176175</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1196,22 +1198,22 @@
         <v>20</v>
       </c>
       <c r="E24">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G24">
-        <v>100499.5</v>
+        <v>95328.817727579299</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1228,22 +1230,22 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G25">
-        <v>102016.1</v>
+        <v>96645.850157534835</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1260,22 +1262,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G26">
-        <v>103407.2</v>
+        <v>97813.772004536062</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1292,22 +1294,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G27">
-        <v>105329.5</v>
+        <v>99416.345118422338</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1324,22 +1326,22 @@
         <v>20</v>
       </c>
       <c r="E28">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G28">
-        <v>107658.66982946932</v>
+        <v>101134.21582933901</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L28" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1356,22 +1358,22 @@
         <v>20</v>
       </c>
       <c r="E29">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G29">
-        <v>111147.49214351295</v>
+        <v>102954.6099954244</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1388,22 +1390,22 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G30">
-        <v>114024.03596386658</v>
+        <v>104660.46066869839</v>
       </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1420,22 +1422,22 @@
         <v>20</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G31">
-        <v>115244.40239641294</v>
+        <v>107534.74234096745</v>
       </c>
       <c r="H31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1452,22 +1454,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G32">
-        <v>116561.93730978228</v>
+        <v>109759.45730997024</v>
       </c>
       <c r="H32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1484,22 +1486,22 @@
         <v>20</v>
       </c>
       <c r="E33">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G33">
-        <v>118038.55097666742</v>
+        <v>110285.56380432411</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1516,22 +1518,22 @@
         <v>20</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G34">
-        <v>119887.98406010853</v>
+        <v>110911.64453962681</v>
       </c>
       <c r="H34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1548,22 +1550,22 @@
         <v>20</v>
       </c>
       <c r="E35">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G35">
-        <v>121632.73848063065</v>
+        <v>111678.96842906548</v>
       </c>
       <c r="H35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1580,22 +1582,22 @@
         <v>20</v>
       </c>
       <c r="E36">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G36">
-        <v>124199.19202156534</v>
+        <v>112823.72494771198</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L36" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1612,22 +1614,22 @@
         <v>20</v>
       </c>
       <c r="E37">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G37">
-        <v>126129.93555762712</v>
+        <v>113850.58411708065</v>
       </c>
       <c r="H37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1644,22 +1646,22 @@
         <v>20</v>
       </c>
       <c r="E38">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G38">
-        <v>127145.2929455077</v>
+        <v>115851.14080542972</v>
       </c>
       <c r="H38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1676,22 +1678,22 @@
         <v>20</v>
       </c>
       <c r="E39">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G39">
-        <v>129527.69986623318</v>
+        <v>117219.50444068712</v>
       </c>
       <c r="H39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1708,22 +1710,22 @@
         <v>20</v>
       </c>
       <c r="E40">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G40">
-        <v>109105.34419852198</v>
+        <v>117644.74656407825</v>
       </c>
       <c r="H40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1740,64 +1742,821 @@
         <v>20</v>
       </c>
       <c r="E41">
+        <v>2019</v>
+      </c>
+      <c r="G41">
+        <v>119433.78223710317</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>35</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42">
+        <v>2020</v>
+      </c>
+      <c r="G42">
+        <v>104269.13145458369</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43">
         <v>2021</v>
       </c>
-      <c r="G41">
-        <v>115879.5158273094</v>
-      </c>
-      <c r="H41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" t="s">
-        <v>31</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K182" s="2"/>
+      <c r="G43">
+        <v>108946.81024127567</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>1990</v>
+      </c>
+      <c r="F44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>1991</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>1992</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>1993</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>1994</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>1995</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>1996</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>1997</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>1998</v>
+      </c>
+      <c r="F52" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>1999</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>2000</v>
+      </c>
+      <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55">
+        <v>2001</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>2002</v>
+      </c>
+      <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>2003</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>2004</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>2005</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60">
+        <v>2006</v>
+      </c>
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>2007</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>2008</v>
+      </c>
+      <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63">
+        <v>2009</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64">
+        <v>2010</v>
+      </c>
+      <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>2011</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>2012</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67">
+        <v>2013</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68">
+        <v>2014</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>2015</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69">
+        <v>0.40767614851659456</v>
+      </c>
+      <c r="J69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70">
+        <v>2016</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>2017</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>2018</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73">
+        <v>2019</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>2020</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>2021</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75">
+        <v>0.39093028450423056</v>
+      </c>
+      <c r="J75" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K184" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L602" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L604" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{4B9A7040-3FB7-AC4F-B94C-32172FB05BC5}"/>
-    <hyperlink ref="K10" r:id="rId2" xr:uid="{B682494D-4FA8-5644-B7C2-7E7C6339B920}"/>
-    <hyperlink ref="K11" r:id="rId3" xr:uid="{1EC56EE5-D28A-934D-AD1E-836C5D79F6B3}"/>
-    <hyperlink ref="K12" r:id="rId4" xr:uid="{FD7A46FA-0D32-1044-B9BA-3F865DE85AF7}"/>
-    <hyperlink ref="K13" r:id="rId5" xr:uid="{7145451D-7836-BB49-B794-E2A01B1E92C9}"/>
-    <hyperlink ref="K14" r:id="rId6" xr:uid="{F1E4BDD8-C0BE-D24C-BB9B-375396112AC3}"/>
-    <hyperlink ref="K15" r:id="rId7" xr:uid="{B477979C-E5F0-FA41-ABB6-153285A531CC}"/>
-    <hyperlink ref="K16" r:id="rId8" xr:uid="{BF53F123-80C9-5349-8370-1FC5A355B2D5}"/>
-    <hyperlink ref="K17" r:id="rId9" xr:uid="{D97EC72C-5274-BE46-8F42-5127D1F4C87B}"/>
-    <hyperlink ref="K18" r:id="rId10" xr:uid="{EAB1614D-2164-444A-8E9E-1C5FF946E3B4}"/>
-    <hyperlink ref="K19" r:id="rId11" xr:uid="{0738F39D-02BE-8E4D-8408-7740281A2213}"/>
-    <hyperlink ref="K20" r:id="rId12" xr:uid="{ECF44579-864D-2344-8127-0704CA521DC6}"/>
-    <hyperlink ref="K21" r:id="rId13" xr:uid="{ECBD42A9-08D9-DF43-ADA9-09FF35986159}"/>
-    <hyperlink ref="K22" r:id="rId14" xr:uid="{86189934-99F7-F44A-9048-F7F01B93926D}"/>
-    <hyperlink ref="K23" r:id="rId15" xr:uid="{50EB0F37-27E8-B148-974B-E6CBE6070EEA}"/>
-    <hyperlink ref="K24" r:id="rId16" xr:uid="{17220A4B-1BA8-3B4A-A227-0532C1AD88AB}"/>
-    <hyperlink ref="K25" r:id="rId17" xr:uid="{D30E1023-29D6-234D-A55D-1D0799EA19C8}"/>
-    <hyperlink ref="K26" r:id="rId18" xr:uid="{5268EB8A-57C3-7C4C-8A24-854589B31154}"/>
-    <hyperlink ref="K27" r:id="rId19" xr:uid="{8297CFEC-472F-9346-B419-DEB9A5844A1E}"/>
-    <hyperlink ref="K28" r:id="rId20" xr:uid="{FA3C8BC3-2DD8-3742-A7D3-9024D10048F1}"/>
-    <hyperlink ref="K29" r:id="rId21" xr:uid="{F8A1A374-D6BD-8240-A9EF-90051E9F0F09}"/>
-    <hyperlink ref="K30" r:id="rId22" xr:uid="{B418864F-D996-FB47-A8E8-86B32EBB8A62}"/>
-    <hyperlink ref="K31" r:id="rId23" xr:uid="{BB8E77BE-B33B-4B4D-8D25-30E15CEEE4A3}"/>
-    <hyperlink ref="K32" r:id="rId24" xr:uid="{4A5EEAE0-86E2-0942-B0E2-02388089DA74}"/>
-    <hyperlink ref="K33" r:id="rId25" xr:uid="{C56586F9-8BA2-CB46-8EA1-45C1012E7773}"/>
-    <hyperlink ref="K34" r:id="rId26" xr:uid="{F324C1A9-C2C0-1C44-AF78-401E436CD412}"/>
-    <hyperlink ref="K35" r:id="rId27" xr:uid="{8D8860DE-0216-5245-8B60-1DDF8DC348C7}"/>
-    <hyperlink ref="K36" r:id="rId28" xr:uid="{2920AEDD-7637-084E-ACBC-B32EC71EBEDF}"/>
-    <hyperlink ref="K37" r:id="rId29" xr:uid="{86A9DE94-479C-C74F-B604-A3C3D7B8B87E}"/>
-    <hyperlink ref="K38" r:id="rId30" xr:uid="{6FE7CC90-F343-4C41-A926-E042B785F622}"/>
-    <hyperlink ref="K39" r:id="rId31" xr:uid="{B2CC4D32-019C-9746-83F7-92472391E1FD}"/>
-    <hyperlink ref="K40" r:id="rId32" xr:uid="{28983732-0BED-CA47-B99F-D257A1761973}"/>
-    <hyperlink ref="K41" r:id="rId33" xr:uid="{D48A3345-1D05-EE4C-9226-51EE17E8D536}"/>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{B682494D-4FA8-5644-B7C2-7E7C6339B920}"/>
+    <hyperlink ref="K13" r:id="rId2" xr:uid="{8D56484E-BBFF-4940-ADD0-9314A9595F91}"/>
+    <hyperlink ref="K14" r:id="rId3" xr:uid="{C9D336F6-DC85-534E-BBD3-5FBC0D46E216}"/>
+    <hyperlink ref="K15" r:id="rId4" xr:uid="{19FC7AE8-B9FB-D440-A91C-8E68698950F5}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{A34A28FE-24F8-D540-B4AA-C734C39CE985}"/>
+    <hyperlink ref="K17" r:id="rId6" xr:uid="{245ADE1D-B897-034F-869B-078452B2C5D0}"/>
+    <hyperlink ref="K18" r:id="rId7" xr:uid="{D7613204-4489-444A-97B9-5E9449A10EF4}"/>
+    <hyperlink ref="K19" r:id="rId8" xr:uid="{7E59A37D-FE92-974F-A01A-363DFBB2B751}"/>
+    <hyperlink ref="K20" r:id="rId9" xr:uid="{6DBDF502-D0F8-8E4F-9661-C55CE3A89793}"/>
+    <hyperlink ref="K21" r:id="rId10" xr:uid="{6D01B8B9-A9D2-7C42-855F-3A7441C055F2}"/>
+    <hyperlink ref="K22" r:id="rId11" xr:uid="{23339B57-9569-C244-816A-4691C338F135}"/>
+    <hyperlink ref="K23" r:id="rId12" xr:uid="{B5222F34-1442-7B43-95E2-8BB64BF458D8}"/>
+    <hyperlink ref="K24" r:id="rId13" xr:uid="{7789F0FC-30D8-FE41-BC1C-406F4FBEEB38}"/>
+    <hyperlink ref="K25" r:id="rId14" xr:uid="{D9F52D18-A269-8142-B34A-716BF497A25C}"/>
+    <hyperlink ref="K26" r:id="rId15" xr:uid="{C4BADD31-7B21-1244-87D8-DE4E46666785}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{2E035F09-502A-5F40-B453-27AD5AE71CBA}"/>
+    <hyperlink ref="K28" r:id="rId17" xr:uid="{F9F913FD-0759-B046-95F5-247583E7613A}"/>
+    <hyperlink ref="K29" r:id="rId18" xr:uid="{22587B68-CA46-8C49-936E-CBA59097985B}"/>
+    <hyperlink ref="K30" r:id="rId19" xr:uid="{4B635A0D-71FF-9944-8148-0E6F01C8BFDC}"/>
+    <hyperlink ref="K31" r:id="rId20" xr:uid="{87826C11-A4F2-E04F-82A2-6C15483EA879}"/>
+    <hyperlink ref="K32" r:id="rId21" xr:uid="{671FD116-8660-D847-8C56-62CAF0EDA3B9}"/>
+    <hyperlink ref="K33" r:id="rId22" xr:uid="{EF6E3AB3-958A-B74A-99AD-A8462ECF3BD0}"/>
+    <hyperlink ref="K34" r:id="rId23" xr:uid="{01A0413A-FC2B-C248-9E91-29CD2037C3ED}"/>
+    <hyperlink ref="K35" r:id="rId24" xr:uid="{6C195768-A0C3-394B-B5A6-08038054A577}"/>
+    <hyperlink ref="K36" r:id="rId25" xr:uid="{10696ACD-C8BE-A24B-88F4-4A6D7B5EB4CD}"/>
+    <hyperlink ref="K37" r:id="rId26" xr:uid="{7B17AC1D-85F2-304C-9838-4F409D3C8D98}"/>
+    <hyperlink ref="K38" r:id="rId27" xr:uid="{FDF5186E-0698-EF49-BE91-297AC9755731}"/>
+    <hyperlink ref="K39" r:id="rId28" xr:uid="{B2613966-4746-4549-8CEC-290E40EC32C6}"/>
+    <hyperlink ref="K40" r:id="rId29" xr:uid="{D46871FE-95F6-9A46-9C11-6BB87B15FFF9}"/>
+    <hyperlink ref="K41" r:id="rId30" xr:uid="{F57C1FC1-E4EC-244C-98A0-8548260A3301}"/>
+    <hyperlink ref="K42" r:id="rId31" xr:uid="{D70B7218-87E3-7E42-8AB8-27D37FA23245}"/>
+    <hyperlink ref="K43" r:id="rId32" xr:uid="{B7DE7018-D280-4440-B637-FF6292DFB3EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
